--- a/www/ig/nos/ValueSet-JDV-J69-ActiviteOperationnelle-Santefr.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J69-ActiviteOperationnelle-Santefr.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.68</t>
+    <t>urn:oid:1.2.250.1.213.3.3.68</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-24T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,7 +424,7 @@
     <t>077</t>
   </si>
   <si>
-    <t>Maladies infectieuses, parasitaires et tropicales</t>
+    <t>Maladies infectieuses et tropicales</t>
   </si>
   <si>
     <t>080</t>
@@ -556,7 +556,7 @@
     <t>102</t>
   </si>
   <si>
-    <t>Oncologie-cancérologie</t>
+    <t>Oncologie médicale (cancérologie)</t>
   </si>
   <si>
     <t>103</t>
@@ -904,49 +904,49 @@
     <t>186</t>
   </si>
   <si>
-    <t>Oncologie neurologique (cancérologie)</t>
+    <t>Oncologie médicale neurologique (cancérologie)</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>Oncogériatrie (cancérologie)</t>
+    <t>Oncogériatrie médicale (cancérologie)</t>
   </si>
   <si>
     <t>188</t>
   </si>
   <si>
-    <t>Oncologie dermatologique (cancérologie)</t>
+    <t>Oncologie médicale dermatologique (cancérologie)</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>Oncologie digestive et viscérale (cancérologie)</t>
+    <t>Oncologie médicale digestive et viscérale (cancérologie)</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>Oncologie gynécologique (cancérologie)</t>
+    <t>Oncologie médicale gynécologique (cancérologie)</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>Oncologie hématologique (cancérologie)</t>
+    <t>Oncologie médicale hématologique (cancérologie)</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>Oncologie oto-rhino-laryngologique (ORL) et cervico-faciale (cancérologie)</t>
+    <t>Oncologie médicale oto-rhino-laryngologique (ORL) et cervico-faciale (cancérologie)</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
-    <t>Oncologie pneumologique (cancérologie)</t>
+    <t>Oncologie médicale pneumologique (cancérologie)</t>
   </si>
   <si>
     <t>194</t>
@@ -958,13 +958,13 @@
     <t>195</t>
   </si>
   <si>
-    <t>Oncologie sénologique (cancer du sein) (cancérologie)</t>
+    <t>Oncologie médicale sénologique (cancer du sein) (cancérologie)</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
-    <t>Oncologie urologique (cancérologie)</t>
+    <t>Oncologie médicale urologique (cancérologie)</t>
   </si>
   <si>
     <t>197</t>
@@ -1144,13 +1144,13 @@
     <t>227</t>
   </si>
   <si>
-    <t>Pédopsychiatrie infanto-juvénile</t>
+    <t>Psychiatrie infanto-juvénile (pédopsychiatrie)</t>
   </si>
   <si>
     <t>228</t>
   </si>
   <si>
-    <t>Pédopsychiatrie des adolescents et jeunes adultes</t>
+    <t>Psychiatrie des adolescents (pédopsychiatrie) et jeunes adultes</t>
   </si>
   <si>
     <t>229</t>
@@ -1456,7 +1456,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>Oncologie pédiatrique (cancérologie)</t>
+    <t>Oncologie médicale pédiatrique (cancérologie)</t>
   </si>
   <si>
     <t>280</t>
@@ -1720,7 +1720,7 @@
     <t>325</t>
   </si>
   <si>
-    <t>Soutien et aide aux aidants et/ou à la famille</t>
+    <t>Soutien et aide aux aidants et/ou à la famille/entourage</t>
   </si>
   <si>
     <t>326</t>
@@ -1954,7 +1954,7 @@
     <t>368</t>
   </si>
   <si>
-    <t>Soins intensifs spécialisés maladies infectieuses, parasitaires et tropicales</t>
+    <t>Soins intensifs spécialisés maladies infectieuses et tropicales</t>
   </si>
   <si>
     <t>369</t>
@@ -2770,7 +2770,7 @@
     <t>544</t>
   </si>
   <si>
-    <t xml:space="preserve">Chirurgie oncologique de la thyroïde </t>
+    <t>Chirurgie oncologique de la thyroïde</t>
   </si>
   <si>
     <t>545</t>
